--- a/case/trade_order.xlsx
+++ b/case/trade_order.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubTest\InterfaceTest\case\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>module</t>
   </si>
@@ -78,47 +83,46 @@
     <t>{"Content-Type": "application/x-www-form-urlencoded"}</t>
   </si>
   <si>
+    <t>tradeOrder_002</t>
+  </si>
+  <si>
+    <t>订单编号查询</t>
+  </si>
+  <si>
+    <t>dateType=0&amp;beginTime=&amp;endTime=&amp;shopIds=&amp;vipName=&amp;separatorVip=&amp;code=SO289446490843&amp;separatorCode=&amp;platformCode=&amp;separatorPlatform=&amp;mailNo=&amp;separatorMailno=&amp;hasInvoice=&amp;refund=&amp;approve=&amp;financeReject=&amp;assign=&amp;delivery=&amp;cancel=false&amp;hold=&amp;customQueryParamInfos=%5B%5D&amp;sort=&amp;page=1&amp;start=0&amp;limit=10</t>
+  </si>
+  <si>
+    <t>审核订单</t>
+  </si>
+  <si>
+    <t>tradeOrder_003</t>
+  </si>
+  <si>
+    <t>http://v2.guanyierp.com/tc/trade/trade_order_approve/approve</t>
+  </si>
+  <si>
+    <t>currentFormId=no_repeat_sumit_tradeOrderHeaderApprove&amp;no_repeat_sumit_tradeOrderHeaderApprove=f40b0d80-e2fd-4f4f-b77c-ebe0e2d375db&amp;ids=289446490843</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>审核任务提交成功</t>
+  </si>
+  <si>
     <t>dateType=0&amp;beginTime=&amp;endTime=&amp;shopIds=&amp;vipName=&amp;separatorVip=&amp;code=&amp;separatorCode=&amp;platformCode=20201213005&amp;separatorPlatform=&amp;mailNo=&amp;separatorMailno=&amp;hasInvoice=&amp;refund=&amp;approve=&amp;financeReject=&amp;assign=&amp;delivery=&amp;cancel=false&amp;hold=&amp;customQueryParamInfos=%5B%5D&amp;sort=&amp;page=1&amp;start=0&amp;limit=10</t>
-  </si>
-  <si>
-    <t>tradeOrder_002</t>
-  </si>
-  <si>
-    <t>订单编号查询</t>
-  </si>
-  <si>
-    <t>dateType=0&amp;beginTime=&amp;endTime=&amp;shopIds=&amp;vipName=&amp;separatorVip=&amp;code=SO289446490843&amp;separatorCode=&amp;platformCode=&amp;separatorPlatform=&amp;mailNo=&amp;separatorMailno=&amp;hasInvoice=&amp;refund=&amp;approve=&amp;financeReject=&amp;assign=&amp;delivery=&amp;cancel=false&amp;hold=&amp;customQueryParamInfos=%5B%5D&amp;sort=&amp;page=1&amp;start=0&amp;limit=10</t>
-  </si>
-  <si>
-    <t>审核订单</t>
-  </si>
-  <si>
-    <t>tradeOrder_003</t>
-  </si>
-  <si>
-    <t>http://v2.guanyierp.com/tc/trade/trade_order_approve/approve</t>
-  </si>
-  <si>
-    <t>currentFormId=no_repeat_sumit_tradeOrderHeaderApprove&amp;no_repeat_sumit_tradeOrderHeaderApprove=f40b0d80-e2fd-4f4f-b77c-ebe0e2d375db&amp;ids=289446490843</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>审核任务提交成功</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://v2.guanyierp.com/tc/trade/trade_order_header/data/list?_dc=</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,7 +149,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,150 +167,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,198 +182,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -529,255 +210,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -797,7 +239,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -815,62 +257,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1157,37 +559,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="79.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.25" customWidth="1"/>
-    <col min="6" max="6" width="21.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="79.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
     <col min="8" max="8" width="28" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="1:13">
+    <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1228,7 +629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="130" customHeight="1" spans="1:13">
+    <row r="2" spans="1:13" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -1238,8 +639,8 @@
       <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>16</v>
+      <c r="D2" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>17</v>
@@ -1248,8 +649,8 @@
       <c r="G2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>19</v>
+      <c r="H2" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="10">
@@ -1259,15 +660,15 @@
       <c r="L2" s="11"/>
       <c r="M2" s="12"/>
     </row>
-    <row r="3" ht="78" customHeight="1" spans="1:13">
+    <row r="3" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>16</v>
@@ -1280,7 +681,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="10">
@@ -1290,18 +691,18 @@
       <c r="L3" s="6"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" ht="100" customHeight="1" spans="1:13">
+    <row r="4" spans="1:13" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
@@ -1309,19 +710,19 @@
         <v>18</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" ht="30" customHeight="1" spans="1:13">
+    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1336,7 +737,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" ht="30" customHeight="1" spans="1:13">
+    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1351,7 +752,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" ht="43.5" customHeight="1" spans="1:13">
+    <row r="7" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1366,7 +767,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" ht="55.5" customHeight="1" spans="1:13">
+    <row r="8" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1381,7 +782,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" ht="57" customHeight="1" spans="1:13">
+    <row r="9" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1396,7 +797,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" ht="52.5" customHeight="1" spans="1:13">
+    <row r="10" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1411,7 +812,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" ht="51.75" customHeight="1" spans="1:13">
+    <row r="11" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1426,7 +827,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" ht="35.25" customHeight="1" spans="1:13">
+    <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1441,7 +842,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" ht="30" customHeight="1" spans="1:13">
+    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1456,7 +857,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" ht="30" customHeight="1" spans="1:13">
+    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1471,7 +872,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" ht="30" customHeight="1" spans="1:13">
+    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1486,7 +887,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" ht="26.25" customHeight="1" spans="1:13">
+    <row r="16" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1501,134 +902,126 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M16">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:M16"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://v2.guanyierp.com/tc/trade/trade_order_header/data/list?_dc=" tooltip="http://v2.guanyierp.com/tc/trade/trade_order_header/data/list?_dc="/>
-    <hyperlink ref="D3" r:id="rId1" display="http://v2.guanyierp.com/tc/trade/trade_order_header/data/list?_dc=" tooltip="http://v2.guanyierp.com/tc/trade/trade_order_header/data/list?_dc="/>
-    <hyperlink ref="D4" r:id="rId2" display="http://v2.guanyierp.com/tc/trade/trade_order_approve/approve"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2" tooltip="http://v2.guanyierp.com/tc/trade/trade_order_header/data/list?_dc="/>
+    <hyperlink ref="D4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>